--- a/data/trans_bre/P1802-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Clase-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 4,63</t>
+          <t>-6,42; 4,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 9,32</t>
+          <t>-0,51; 9,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 32,96</t>
+          <t>-34,02; 36,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 61,5</t>
+          <t>-2,72; 61,9</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 9,88</t>
+          <t>-0,23; 10,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,05</t>
+          <t>-1,4; 8,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 97,36</t>
+          <t>-2,27; 111,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 65,16</t>
+          <t>-8,52; 62,26</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 17,05</t>
+          <t>2,08; 17,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,06; 7,33</t>
+          <t>-60,75; 7,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 127,11</t>
+          <t>8,48; 122,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,51; 47,11</t>
+          <t>-77,41; 53,42</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,52</t>
+          <t>0,42; 7,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 4,48</t>
+          <t>-9,42; 4,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 53,88</t>
+          <t>2,81; 51,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,63; 26,14</t>
+          <t>-49,57; 26,49</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,94</t>
+          <t>0,76; 8,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,94</t>
+          <t>-5,12; 4,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 76,41</t>
+          <t>5,05; 72,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 36,25</t>
+          <t>-27,68; 34,29</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,39</t>
+          <t>4,93; 13,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 12,99</t>
+          <t>4,34; 12,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,08; 186,2</t>
+          <t>34,72; 190,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,79; 621,23</t>
+          <t>46,07; 685,39</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,52</t>
+          <t>2,55; 6,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 2,26</t>
+          <t>-25,89; 2,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,24; 46,84</t>
+          <t>17,21; 46,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 14,15</t>
+          <t>-63,16; 14,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1802-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
